--- a/Thesis/data/verwerking.xlsx
+++ b/Thesis/data/verwerking.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -381,28 +381,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.176470588235294</c:v>
+                  <c:v>0.17647058823529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.176470588235294</c:v>
+                  <c:v>0.17647058823529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.352941176470588</c:v>
+                  <c:v>0.35294117647059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.470588235294118</c:v>
+                  <c:v>0.47058823529412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.588235294117647</c:v>
+                  <c:v>0.58823529411765</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.294117647058823</c:v>
+                  <c:v>1.29411764705882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.764705882352941</c:v>
+                  <c:v>1.76470588235294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.176470588235294</c:v>
+                  <c:v>2.17647058823529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,11 +417,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2143581704"/>
-        <c:axId val="-2143580296"/>
+        <c:axId val="2089072248"/>
+        <c:axId val="2085579304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143581704"/>
+        <c:axId val="2089072248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,7 +431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143580296"/>
+        <c:crossAx val="2085579304"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -439,10 +439,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143580296"/>
+        <c:axId val="2085579304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6.0"/>
+          <c:max val="5.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -452,7 +452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143581704"/>
+        <c:crossAx val="2089072248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -906,28 +906,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>29</v>
@@ -953,28 +953,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>4</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
       </c>
       <c r="K4">
         <v>26</v>
@@ -1000,28 +1000,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>30</v>
@@ -1047,28 +1047,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>25</v>
@@ -1094,28 +1094,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>47</v>
@@ -1141,28 +1141,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>34</v>
@@ -1188,28 +1188,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>36</v>
@@ -1235,28 +1235,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>21</v>
@@ -1282,28 +1282,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
+      <c r="J11">
         <v>2</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
       </c>
       <c r="K11">
         <v>30</v>
@@ -1329,28 +1329,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>27</v>
@@ -1376,28 +1376,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>26</v>
@@ -1423,28 +1423,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>37</v>
@@ -1470,28 +1470,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>25</v>
@@ -1517,28 +1517,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>31</v>
@@ -1564,28 +1564,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>35</v>
@@ -1611,28 +1611,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>23</v>
@@ -1658,28 +1658,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>33</v>
@@ -1744,35 +1744,35 @@
       </c>
       <c r="C21">
         <f>AVERAGE(C3:C19)</f>
-        <v>1.1764705882352942</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:N21" si="0">AVERAGE(D3:D19)</f>
-        <v>2.7647058823529411</v>
+        <v>1.7647058823529411</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1.3529411764705883</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>4.0588235294117645</v>
+        <v>3.0588235294117645</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>1.588235294117647</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.1764705882352942</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>2.2941176470588234</v>
+        <v>1.2941176470588236</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>1.4705882352941178</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
@@ -1793,35 +1793,35 @@
       </c>
       <c r="C22">
         <f>MEDIAN(C3:C19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:N22" si="2">MEDIAN(D3:D19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
@@ -1842,35 +1842,35 @@
       </c>
       <c r="C23">
         <f>QUARTILE(C3:C19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <f t="shared" ref="D23:N23" si="4">QUARTILE(D3:D19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
@@ -1891,35 +1891,35 @@
       </c>
       <c r="C24">
         <f>QUARTILE(C3:C19,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f t="shared" ref="D24:N24" si="6">QUARTILE(D3:D19,3)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <f t="shared" si="6"/>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="C25">
         <f>STDEV(C3:C19)</f>
-        <v>0.5285941398709243</v>
+        <v>0.52859413987092441</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25:N25" si="8">STDEV(D3:D19)</f>
@@ -1951,7 +1951,7 @@
         <v>0.70188820963421905</v>
       </c>
       <c r="F25">
-        <f t="shared" si="8"/>
+        <f>STDEV(F3:F19)</f>
         <v>2.2212211797594055</v>
       </c>
       <c r="G25">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="8"/>
-        <v>0.5285941398709243</v>
+        <v>0.52859413987092441</v>
       </c>
       <c r="I25">
         <f t="shared" si="8"/>
@@ -1989,35 +1989,35 @@
       </c>
       <c r="C26">
         <f>MIN(C3:C19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26:N26" si="10">MIN(D3:D19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f t="shared" si="10"/>
@@ -2038,35 +2038,35 @@
       </c>
       <c r="C27">
         <f>MAX(C3:C19)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <f t="shared" ref="D27:N27" si="12">MAX(D3:D19)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K27">
         <f t="shared" si="12"/>
@@ -2109,7 +2109,8 @@
         <v>27</v>
       </c>
       <c r="C35">
-        <v>1.1764705882352942</v>
+        <f>1.17647058823529-1</f>
+        <v>0.17647058823528994</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -2117,7 +2118,8 @@
         <v>22</v>
       </c>
       <c r="C36">
-        <v>1.1764705882352942</v>
+        <f>1.17647058823529-1</f>
+        <v>0.17647058823528994</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -2125,7 +2127,8 @@
         <v>24</v>
       </c>
       <c r="C37">
-        <v>1.3529411764705883</v>
+        <f>1.35294117647059-1</f>
+        <v>0.35294117647059009</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -2133,7 +2136,8 @@
         <v>29</v>
       </c>
       <c r="C38">
-        <v>1.4705882352941178</v>
+        <f>1.47058823529412-1</f>
+        <v>0.47058823529411997</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -2141,7 +2145,8 @@
         <v>26</v>
       </c>
       <c r="C39">
-        <v>1.588235294117647</v>
+        <f>1.58823529411765-1</f>
+        <v>0.58823529411765008</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -2149,7 +2154,8 @@
         <v>28</v>
       </c>
       <c r="C40">
-        <v>2.2941176470588234</v>
+        <f>2.29411764705882-1</f>
+        <v>1.2941176470588198</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -2157,7 +2163,8 @@
         <v>23</v>
       </c>
       <c r="C41">
-        <v>2.7647058823529411</v>
+        <f>2.76470588235294-1</f>
+        <v>1.7647058823529398</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -2165,12 +2172,12 @@
         <v>25</v>
       </c>
       <c r="C42">
-        <v>3.1764705882352939</v>
+        <f>3.17647058823529-1</f>
+        <v>2.1764705882352899</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Thesis/data/verwerking.xlsx
+++ b/Thesis/data/verwerking.xlsx
@@ -164,8 +164,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -220,7 +230,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -245,6 +255,11 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -269,6 +284,11 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -292,7 +312,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0219090793945663"/>
+          <c:y val="0.0375"/>
+          <c:w val="0.953962234278356"/>
+          <c:h val="0.845111220472441"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -381,28 +411,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.17647058823529</c:v>
+                  <c:v>1.176470588235294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17647058823529</c:v>
+                  <c:v>1.176470588235294</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35294117647059</c:v>
+                  <c:v>1.352941176470588</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47058823529412</c:v>
+                  <c:v>1.470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58823529411765</c:v>
+                  <c:v>1.588235294117647</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.29411764705882</c:v>
+                  <c:v>2.294117647058823</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.76470588235294</c:v>
+                  <c:v>2.764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.17647058823529</c:v>
+                  <c:v>4.058823529411764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,11 +447,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2089072248"/>
-        <c:axId val="2085579304"/>
+        <c:axId val="2057135048"/>
+        <c:axId val="2057138040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2089072248"/>
+        <c:axId val="2057135048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,7 +461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085579304"/>
+        <c:crossAx val="2057138040"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -439,11 +469,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085579304"/>
+        <c:axId val="2057138040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.0"/>
-          <c:min val="0.0"/>
+          <c:max val="6.0"/>
+          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -452,7 +482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089072248"/>
+        <c:crossAx val="2057135048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -830,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -906,28 +936,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>29</v>
@@ -953,28 +983,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>5</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
       </c>
       <c r="K4">
         <v>26</v>
@@ -1000,28 +1030,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>30</v>
@@ -1047,28 +1077,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>25</v>
@@ -1094,28 +1124,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>47</v>
@@ -1141,28 +1171,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>34</v>
@@ -1188,28 +1218,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>36</v>
@@ -1235,28 +1265,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>21</v>
@@ -1282,28 +1312,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>30</v>
@@ -1329,28 +1359,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>27</v>
@@ -1376,28 +1406,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>26</v>
@@ -1423,28 +1453,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>37</v>
@@ -1470,28 +1500,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>25</v>
@@ -1517,28 +1547,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
       <c r="I16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>31</v>
@@ -1564,28 +1594,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>35</v>
@@ -1611,28 +1641,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>23</v>
@@ -1658,28 +1688,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>5</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>33</v>
@@ -1744,35 +1774,35 @@
       </c>
       <c r="C21">
         <f>AVERAGE(C3:C19)</f>
-        <v>0.17647058823529413</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:N21" si="0">AVERAGE(D3:D19)</f>
-        <v>1.7647058823529411</v>
+        <v>2.7647058823529411</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.35294117647058826</v>
+        <v>1.3529411764705883</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>3.0588235294117645</v>
+        <v>4.0588235294117645</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0.58823529411764708</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0.17647058823529413</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>1.2941176470588236</v>
+        <v>2.2941176470588234</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>0.47058823529411764</v>
+        <v>1.4705882352941178</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
@@ -1793,35 +1823,35 @@
       </c>
       <c r="C22">
         <f>MEDIAN(C3:C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:N22" si="2">MEDIAN(D3:D19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
@@ -1842,35 +1872,35 @@
       </c>
       <c r="C23">
         <f>QUARTILE(C3:C19,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f t="shared" ref="D23:N23" si="4">QUARTILE(D3:D19,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
@@ -1891,35 +1921,35 @@
       </c>
       <c r="C24">
         <f>QUARTILE(C3:C19,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" ref="D24:N24" si="6">QUARTILE(D3:D19,3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <f t="shared" si="6"/>
@@ -1940,7 +1970,7 @@
       </c>
       <c r="C25">
         <f>STDEV(C3:C19)</f>
-        <v>0.52859413987092441</v>
+        <v>0.5285941398709243</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25:N25" si="8">STDEV(D3:D19)</f>
@@ -1960,7 +1990,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="8"/>
-        <v>0.52859413987092441</v>
+        <v>0.5285941398709243</v>
       </c>
       <c r="I25">
         <f t="shared" si="8"/>
@@ -1989,35 +2019,35 @@
       </c>
       <c r="C26">
         <f>MIN(C3:C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26:N26" si="10">MIN(D3:D19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <f t="shared" si="10"/>
@@ -2038,35 +2068,35 @@
       </c>
       <c r="C27">
         <f>MAX(C3:C19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <f t="shared" ref="D27:N27" si="12">MAX(D3:D19)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J27">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27">
         <f t="shared" si="12"/>
@@ -2096,7 +2126,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>21</v>
       </c>
@@ -2104,80 +2134,113 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>27</v>
       </c>
       <c r="C35">
-        <f>1.17647058823529-1</f>
-        <v>0.17647058823528994</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
+        <f>H21</f>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="D35">
+        <f>H25</f>
+        <v>0.5285941398709243</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36">
-        <f>1.17647058823529-1</f>
-        <v>0.17647058823528994</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
+        <f>C21</f>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="D36">
+        <f>C25</f>
+        <v>0.5285941398709243</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>24</v>
       </c>
       <c r="C37">
-        <f>1.35294117647059-1</f>
-        <v>0.35294117647059009</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
+        <f>E21</f>
+        <v>1.3529411764705883</v>
+      </c>
+      <c r="D37">
+        <f>E25</f>
+        <v>0.70188820963421905</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>29</v>
       </c>
       <c r="C38">
-        <f>1.47058823529412-1</f>
-        <v>0.47058823529411997</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
+        <f>J21</f>
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="D38">
+        <f>J25</f>
+        <v>1.0675700831106785</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
         <v>26</v>
       </c>
       <c r="C39">
-        <f>1.58823529411765-1</f>
-        <v>0.58823529411765008</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
+        <f>G21</f>
+        <v>1.588235294117647</v>
+      </c>
+      <c r="D39">
+        <f>G25</f>
+        <v>1.227743027337753</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
       <c r="B40" t="s">
         <v>28</v>
       </c>
       <c r="C40">
-        <f>2.29411764705882-1</f>
-        <v>1.2941176470588198</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
+        <f>I21</f>
+        <v>2.2941176470588234</v>
+      </c>
+      <c r="D40">
+        <f>I25</f>
+        <v>1.7235394498804248</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41">
-        <f>2.76470588235294-1</f>
-        <v>1.7647058823529398</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
+        <f>D21</f>
+        <v>2.7647058823529411</v>
+      </c>
+      <c r="D41">
+        <f>D25</f>
+        <v>2.0164762509358338</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
       <c r="B42" t="s">
         <v>25</v>
       </c>
       <c r="C42">
-        <f>3.17647058823529-1</f>
-        <v>2.1764705882352899</v>
+        <f>F21</f>
+        <v>4.0588235294117645</v>
+      </c>
+      <c r="D42">
+        <f>F25</f>
+        <v>2.2212211797594055</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
